--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325407.9188711213</v>
+        <v>316380.1554421589</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24223920.55182797</v>
+        <v>24223920.55182798</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12516915.08179083</v>
+        <v>12516915.08179084</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4484752.354131102</v>
+        <v>4484752.354131103</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>92.35321255937379</v>
       </c>
       <c r="T11" t="n">
-        <v>61.37192878585377</v>
+        <v>211.9978129737496</v>
       </c>
       <c r="U11" t="n">
         <v>254.3439294275147</v>
@@ -1432,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>109.0280477286205</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>122.996562650003</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.9440354161434</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>88.77806608433272</v>
       </c>
       <c r="T12" t="n">
         <v>153.8137702840475</v>
@@ -1508,16 +1508,16 @@
         <v>195.3130806385147</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>130.3331798990115</v>
       </c>
       <c r="W12" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.25019300256069</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7594938775867</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.8351203350479</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.57126734124122</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.62205302157695</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>170.2654874434151</v>
+        <v>69.10104064186216</v>
       </c>
       <c r="T13" t="n">
         <v>233.6564803196206</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9255263455484</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>310.0478928543632</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>15.15046389706676</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.56758134255281</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.9978129737496</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="X14" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>123.0141420360343</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1700,7 +1700,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.9440354161434</v>
+        <v>59.64033718036983</v>
       </c>
       <c r="H15" t="n">
         <v>60.61193440420229</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1767,13 +1767,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>105.870957804361</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.8351203350479</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>90.57126734124121</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>170.2654874434151</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9255263455484</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>12.24769522843456</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>310.0478928543632</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>352.0071444758895</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>11.36483268024545</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>92.35321255937379</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.9978129737496</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>352.0071444758895</v>
       </c>
       <c r="X17" t="n">
-        <v>352.0071444758893</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
@@ -1934,13 +1934,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.9440354161434</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>60.61193440420229</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>88.77806608433272</v>
       </c>
       <c r="T18" t="n">
-        <v>153.8137702840475</v>
+        <v>119.3782836168685</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3130806385147</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>104.9171170864628</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>139.7727063309678</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>49.17067874145874</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.7594938775867</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.8351203350479</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>90.57126734124122</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>170.2654874434151</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9255263455484</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>352.0071444758892</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>352.0071444758892</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>310.0478928543633</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>15.15046389706677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>294.8974289572967</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="Y20" t="n">
-        <v>352.0071444758892</v>
+        <v>352.0071444758896</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>76.64599759627129</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2171,7 +2171,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>82.154390844898</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>85.75302922600375</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.62205302157695</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.6564803196206</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9255263455484</v>
+        <v>126.5382253622878</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>343.7113835308382</v>
+        <v>371.3163459613912</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>83.78946074098128</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T24" t="n">
         <v>152.7312370348056</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>55.8525559877767</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>96.70724095295617</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.6944259398202</v>
@@ -2563,16 +2563,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.3145745171349</v>
+        <v>317.7646895502265</v>
       </c>
       <c r="H26" t="n">
-        <v>79.94249719149872</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
@@ -2651,7 +2651,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H27" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2733,7 +2733,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>36.06245454027277</v>
+        <v>162.9498629592539</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>221.9057333771736</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>54.05470217403958</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>283.9738944557603</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2888,7 +2888,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H30" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098174</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T30" t="n">
         <v>152.7312370348056</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>52.81165100223332</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
         <v>232.6944259398202</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>233.1656774205535</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,22 +3031,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>130.2184178840435</v>
+        <v>34.12252132104535</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504954</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5343322142292</v>
+        <v>93.35052185511361</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>164.6100508922364</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>103.5650533157995</v>
       </c>
       <c r="G35" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>21.963532985005</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>55.85255598777715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.35052185511404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>363.9901506919329</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>341.8160996215736</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.6754635109996</v>
+        <v>104.6754635109993</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>28.16787200195261</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3717,19 +3717,19 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9132448002744</v>
+        <v>69.77607017005867</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>332.7200611631023</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>207.0890334016134</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504997</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098197</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3957,7 +3957,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>267.5229891658329</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.2889232305328</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>259.0090656271781</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>153.4556080756798</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504997</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098197</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4137,22 +4137,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>25.3912059686864</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>93.35052185511427</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>739.2861159538072</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="C11" t="n">
-        <v>739.2861159538072</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="D11" t="n">
-        <v>739.2861159538072</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="E11" t="n">
-        <v>383.7233437559391</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="F11" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="G11" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="H11" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="I11" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J11" t="n">
-        <v>108.8711159788284</v>
+        <v>108.8711159788282</v>
       </c>
       <c r="K11" t="n">
         <v>250.3843999048784</v>
       </c>
       <c r="L11" t="n">
-        <v>440.8893556281537</v>
+        <v>440.8893556281536</v>
       </c>
       <c r="M11" t="n">
-        <v>665.6889474103937</v>
+        <v>665.688947410394</v>
       </c>
       <c r="N11" t="n">
-        <v>895.9946240018352</v>
+        <v>895.9946240018356</v>
       </c>
       <c r="O11" t="n">
         <v>1108.064962901808</v>
       </c>
       <c r="P11" t="n">
-        <v>1275.089185384362</v>
+        <v>1275.089185384363</v>
       </c>
       <c r="Q11" t="n">
-        <v>1381.00745820269</v>
+        <v>1381.007458202691</v>
       </c>
       <c r="R11" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S11" t="n">
-        <v>1408.028577903557</v>
+        <v>1314.742504611262</v>
       </c>
       <c r="T11" t="n">
-        <v>1346.036730645119</v>
+        <v>1100.603299587272</v>
       </c>
       <c r="U11" t="n">
-        <v>1089.123670617327</v>
+        <v>843.6902395594796</v>
       </c>
       <c r="V11" t="n">
-        <v>739.2861159538072</v>
+        <v>493.8526848959602</v>
       </c>
       <c r="W11" t="n">
-        <v>739.2861159538072</v>
+        <v>138.2899126980919</v>
       </c>
       <c r="X11" t="n">
-        <v>739.2861159538072</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="Y11" t="n">
-        <v>739.2861159538072</v>
+        <v>28.16057155807117</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>152.3995237297914</v>
+        <v>480.5145013417689</v>
       </c>
       <c r="C12" t="n">
-        <v>28.16057155807115</v>
+        <v>480.5145013417689</v>
       </c>
       <c r="D12" t="n">
-        <v>28.16057155807115</v>
+        <v>363.6173435611613</v>
       </c>
       <c r="E12" t="n">
-        <v>28.16057155807115</v>
+        <v>243.1245275534893</v>
       </c>
       <c r="F12" t="n">
-        <v>28.16057155807115</v>
+        <v>134.1646477359938</v>
       </c>
       <c r="G12" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="H12" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="I12" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J12" t="n">
-        <v>312.2783948495426</v>
+        <v>312.2783948495427</v>
       </c>
       <c r="K12" t="n">
-        <v>494.7667318489079</v>
+        <v>413.0655991643317</v>
       </c>
       <c r="L12" t="n">
-        <v>649.0481951315193</v>
+        <v>567.3470624469431</v>
       </c>
       <c r="M12" t="n">
-        <v>836.9269174055931</v>
+        <v>755.2257847210171</v>
       </c>
       <c r="N12" t="n">
-        <v>1035.613731598553</v>
+        <v>953.9125989139774</v>
       </c>
       <c r="O12" t="n">
-        <v>1208.374332909759</v>
+        <v>1126.673200225183</v>
       </c>
       <c r="P12" t="n">
-        <v>1339.200054477129</v>
+        <v>1257.498921792553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1406.436310190025</v>
+        <v>1324.735177505449</v>
       </c>
       <c r="R12" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S12" t="n">
-        <v>1408.028577903557</v>
+        <v>1318.35376367696</v>
       </c>
       <c r="T12" t="n">
-        <v>1252.661133172196</v>
+        <v>1162.986318945599</v>
       </c>
       <c r="U12" t="n">
-        <v>1055.375193133293</v>
+        <v>965.7003789066949</v>
       </c>
       <c r="V12" t="n">
-        <v>841.6636661263265</v>
+        <v>834.0507022410268</v>
       </c>
       <c r="W12" t="n">
-        <v>628.4304978626552</v>
+        <v>620.8175339773555</v>
       </c>
       <c r="X12" t="n">
-        <v>452.104516001548</v>
+        <v>620.8175339773555</v>
       </c>
       <c r="Y12" t="n">
-        <v>292.702556365378</v>
+        <v>620.8175339773555</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2238000099044</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="C13" t="n">
-        <v>764.2238000099044</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="D13" t="n">
-        <v>753.8700697042875</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="E13" t="n">
-        <v>592.9592545726071</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3281286831983</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="G13" t="n">
-        <v>261.9043974937167</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="H13" t="n">
-        <v>119.6467001855875</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="I13" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J13" t="n">
-        <v>99.52492223904667</v>
+        <v>34.52355860771033</v>
       </c>
       <c r="K13" t="n">
-        <v>348.2088457314115</v>
+        <v>76.92728851436109</v>
       </c>
       <c r="L13" t="n">
-        <v>490.709042449717</v>
+        <v>186.4262486971701</v>
       </c>
       <c r="M13" t="n">
-        <v>839.1961154808474</v>
+        <v>534.9133217283008</v>
       </c>
       <c r="N13" t="n">
-        <v>911.9847240956301</v>
+        <v>883.4003947594315</v>
       </c>
       <c r="O13" t="n">
-        <v>970.989984317443</v>
+        <v>1231.887467790562</v>
       </c>
       <c r="P13" t="n">
-        <v>1274.656563074549</v>
+        <v>1274.65656307455</v>
       </c>
       <c r="Q13" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="R13" t="n">
-        <v>1359.925494043379</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.940153191444</v>
+        <v>1338.229546952183</v>
       </c>
       <c r="T13" t="n">
-        <v>951.9235064039487</v>
+        <v>1102.212900164687</v>
       </c>
       <c r="U13" t="n">
-        <v>951.9235064039487</v>
+        <v>819.4598432499915</v>
       </c>
       <c r="V13" t="n">
-        <v>951.9235064039487</v>
+        <v>545.5740981895135</v>
       </c>
       <c r="W13" t="n">
-        <v>951.9235064039487</v>
+        <v>266.5044336983878</v>
       </c>
       <c r="X13" t="n">
-        <v>951.9235064039487</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.9235064039487</v>
+        <v>28.16057155807117</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>696.9030335078212</v>
+        <v>399.0268426418655</v>
       </c>
       <c r="C14" t="n">
-        <v>383.7233437559391</v>
+        <v>399.0268426418655</v>
       </c>
       <c r="D14" t="n">
-        <v>28.16057155807115</v>
+        <v>43.46407044399719</v>
       </c>
       <c r="E14" t="n">
-        <v>28.16057155807115</v>
+        <v>43.46407044399719</v>
       </c>
       <c r="F14" t="n">
-        <v>28.16057155807115</v>
+        <v>43.46407044399719</v>
       </c>
       <c r="G14" t="n">
-        <v>28.16057155807115</v>
+        <v>43.46407044399719</v>
       </c>
       <c r="H14" t="n">
-        <v>28.16057155807115</v>
+        <v>43.46407044399719</v>
       </c>
       <c r="I14" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J14" t="n">
-        <v>108.8711159788284</v>
+        <v>108.8711159788286</v>
       </c>
       <c r="K14" t="n">
-        <v>250.3843999048784</v>
+        <v>250.3843999048788</v>
       </c>
       <c r="L14" t="n">
-        <v>440.8893556281537</v>
+        <v>440.8893556281541</v>
       </c>
       <c r="M14" t="n">
-        <v>665.6889474103938</v>
+        <v>665.6889474103943</v>
       </c>
       <c r="N14" t="n">
-        <v>895.9946240018353</v>
+        <v>895.994624001836</v>
       </c>
       <c r="O14" t="n">
         <v>1108.064962901808</v>
@@ -5299,31 +5299,31 @@
         <v>1275.089185384363</v>
       </c>
       <c r="Q14" t="n">
-        <v>1381.00745820269</v>
+        <v>1381.007458202691</v>
       </c>
       <c r="R14" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S14" t="n">
-        <v>1408.028577903557</v>
+        <v>1318.566374527242</v>
       </c>
       <c r="T14" t="n">
-        <v>1408.028577903557</v>
+        <v>1104.427169503253</v>
       </c>
       <c r="U14" t="n">
-        <v>1408.028577903557</v>
+        <v>1104.427169503253</v>
       </c>
       <c r="V14" t="n">
-        <v>1408.028577903557</v>
+        <v>754.5896148397337</v>
       </c>
       <c r="W14" t="n">
-        <v>1408.028577903557</v>
+        <v>399.0268426418655</v>
       </c>
       <c r="X14" t="n">
-        <v>1052.465805705689</v>
+        <v>399.0268426418655</v>
       </c>
       <c r="Y14" t="n">
-        <v>1052.465805705689</v>
+        <v>399.0268426418655</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.9953866349372</v>
+        <v>629.9724374094178</v>
       </c>
       <c r="C15" t="n">
-        <v>541.7386775076297</v>
+        <v>495.9773661583635</v>
       </c>
       <c r="D15" t="n">
-        <v>424.8415197270222</v>
+        <v>379.0802083777559</v>
       </c>
       <c r="E15" t="n">
-        <v>304.3487037193502</v>
+        <v>258.5873923700839</v>
       </c>
       <c r="F15" t="n">
-        <v>195.3888239018547</v>
+        <v>149.6275125525885</v>
       </c>
       <c r="G15" t="n">
-        <v>89.38474772393205</v>
+        <v>89.38474772393207</v>
       </c>
       <c r="H15" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="I15" t="n">
-        <v>41.0983547462941</v>
+        <v>41.09835474629413</v>
       </c>
       <c r="J15" t="n">
-        <v>325.2161780377655</v>
+        <v>306.0098110571383</v>
       </c>
       <c r="K15" t="n">
-        <v>494.7667318489079</v>
+        <v>406.7970153719274</v>
       </c>
       <c r="L15" t="n">
-        <v>649.0481951315193</v>
+        <v>561.0784786545388</v>
       </c>
       <c r="M15" t="n">
-        <v>836.9269174055931</v>
+        <v>748.9572009286128</v>
       </c>
       <c r="N15" t="n">
-        <v>1035.613731598553</v>
+        <v>947.6440151215731</v>
       </c>
       <c r="O15" t="n">
-        <v>1208.374332909759</v>
+        <v>1120.404616432779</v>
       </c>
       <c r="P15" t="n">
-        <v>1339.200054477129</v>
+        <v>1251.230338000149</v>
       </c>
       <c r="Q15" t="n">
-        <v>1406.436310190025</v>
+        <v>1318.466593713045</v>
       </c>
       <c r="R15" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S15" t="n">
-        <v>1318.353763676959</v>
+        <v>1318.35376367696</v>
       </c>
       <c r="T15" t="n">
-        <v>1162.986318945598</v>
+        <v>1162.986318945599</v>
       </c>
       <c r="U15" t="n">
-        <v>965.7003789066938</v>
+        <v>965.7003789066949</v>
       </c>
       <c r="V15" t="n">
-        <v>965.7003789066938</v>
+        <v>965.7003789066949</v>
       </c>
       <c r="W15" t="n">
-        <v>965.7003789066938</v>
+        <v>965.7003789066949</v>
       </c>
       <c r="X15" t="n">
-        <v>965.7003789066938</v>
+        <v>789.3743970455878</v>
       </c>
       <c r="Y15" t="n">
-        <v>806.2984192705238</v>
+        <v>629.9724374094178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.1943054149011</v>
+        <v>421.3990421708067</v>
       </c>
       <c r="C16" t="n">
-        <v>135.1009329766176</v>
+        <v>421.3990421708067</v>
       </c>
       <c r="D16" t="n">
-        <v>135.1009329766176</v>
+        <v>261.9043974937167</v>
       </c>
       <c r="E16" t="n">
-        <v>28.16057155807115</v>
+        <v>261.9043974937167</v>
       </c>
       <c r="F16" t="n">
-        <v>28.16057155807115</v>
+        <v>261.9043974937167</v>
       </c>
       <c r="G16" t="n">
-        <v>28.16057155807115</v>
+        <v>261.9043974937167</v>
       </c>
       <c r="H16" t="n">
-        <v>28.16057155807115</v>
+        <v>119.6467001855875</v>
       </c>
       <c r="I16" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5235586077103</v>
+        <v>99.52492223904673</v>
       </c>
       <c r="K16" t="n">
-        <v>283.2074821000751</v>
+        <v>348.2088457314117</v>
       </c>
       <c r="L16" t="n">
-        <v>349.5815053567446</v>
+        <v>602.1820217123252</v>
       </c>
       <c r="M16" t="n">
-        <v>661.1872819341374</v>
+        <v>950.6690947434558</v>
       </c>
       <c r="N16" t="n">
-        <v>1009.674354965268</v>
+        <v>1299.156167774586</v>
       </c>
       <c r="O16" t="n">
-        <v>1358.161427996398</v>
+        <v>1358.161427996399</v>
       </c>
       <c r="P16" t="n">
-        <v>1400.930523280386</v>
+        <v>1400.930523280387</v>
       </c>
       <c r="Q16" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="R16" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S16" t="n">
-        <v>1236.043237051623</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="T16" t="n">
-        <v>1236.043237051623</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.043237051623</v>
+        <v>1125.275520988863</v>
       </c>
       <c r="V16" t="n">
-        <v>1236.043237051623</v>
+        <v>1112.904111667212</v>
       </c>
       <c r="W16" t="n">
-        <v>956.9735725604974</v>
+        <v>833.8344471760864</v>
       </c>
       <c r="X16" t="n">
-        <v>718.6297104201808</v>
+        <v>833.8344471760864</v>
       </c>
       <c r="Y16" t="n">
-        <v>493.8940118089455</v>
+        <v>609.0987485648511</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>739.2861159538072</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="C17" t="n">
-        <v>739.2861159538072</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="D17" t="n">
-        <v>739.2861159538072</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="E17" t="n">
-        <v>383.7233437559391</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="F17" t="n">
-        <v>28.16057155807115</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="G17" t="n">
-        <v>28.16057155807115</v>
+        <v>39.64020052801607</v>
       </c>
       <c r="H17" t="n">
-        <v>28.16057155807115</v>
+        <v>39.64020052801607</v>
       </c>
       <c r="I17" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="J17" t="n">
-        <v>108.8711159788284</v>
+        <v>108.8711159788285</v>
       </c>
       <c r="K17" t="n">
-        <v>250.3843999048784</v>
+        <v>250.3843999048786</v>
       </c>
       <c r="L17" t="n">
-        <v>440.8893556281537</v>
+        <v>440.8893556281539</v>
       </c>
       <c r="M17" t="n">
-        <v>665.6889474103937</v>
+        <v>665.688947410394</v>
       </c>
       <c r="N17" t="n">
-        <v>895.9946240018352</v>
+        <v>895.9946240018356</v>
       </c>
       <c r="O17" t="n">
         <v>1108.064962901808</v>
       </c>
       <c r="P17" t="n">
-        <v>1275.089185384362</v>
+        <v>1275.089185384363</v>
       </c>
       <c r="Q17" t="n">
-        <v>1381.00745820269</v>
+        <v>1381.007458202691</v>
       </c>
       <c r="R17" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S17" t="n">
-        <v>1408.028577903557</v>
+        <v>1314.742504611261</v>
       </c>
       <c r="T17" t="n">
-        <v>1408.028577903557</v>
+        <v>1100.603299587272</v>
       </c>
       <c r="U17" t="n">
-        <v>1408.028577903557</v>
+        <v>1100.603299587272</v>
       </c>
       <c r="V17" t="n">
-        <v>1408.028577903557</v>
+        <v>750.7657449237524</v>
       </c>
       <c r="W17" t="n">
-        <v>1408.028577903557</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="X17" t="n">
-        <v>1052.465805705689</v>
+        <v>395.2029727258843</v>
       </c>
       <c r="Y17" t="n">
-        <v>1052.465805705689</v>
+        <v>395.2029727258843</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>432.7787976901343</v>
+        <v>508.5054964149005</v>
       </c>
       <c r="C18" t="n">
-        <v>432.7787976901343</v>
+        <v>374.5104251638462</v>
       </c>
       <c r="D18" t="n">
-        <v>315.8816399095267</v>
+        <v>257.6132673832386</v>
       </c>
       <c r="E18" t="n">
-        <v>195.3888239018547</v>
+        <v>137.1204513755666</v>
       </c>
       <c r="F18" t="n">
-        <v>195.3888239018547</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="G18" t="n">
-        <v>89.38474772393205</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="H18" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="I18" t="n">
-        <v>28.16057155807115</v>
+        <v>41.09835474629413</v>
       </c>
       <c r="J18" t="n">
-        <v>312.2783948495426</v>
+        <v>81.54777406313237</v>
       </c>
       <c r="K18" t="n">
-        <v>494.7667318489079</v>
+        <v>182.3349783779215</v>
       </c>
       <c r="L18" t="n">
-        <v>649.0481951315193</v>
+        <v>336.6164416605329</v>
       </c>
       <c r="M18" t="n">
-        <v>836.9269174055931</v>
+        <v>524.4951639346068</v>
       </c>
       <c r="N18" t="n">
-        <v>1035.613731598553</v>
+        <v>723.181978127567</v>
       </c>
       <c r="O18" t="n">
-        <v>1208.374332909759</v>
+        <v>895.9425794387726</v>
       </c>
       <c r="P18" t="n">
-        <v>1339.200054477129</v>
+        <v>1026.768301006143</v>
       </c>
       <c r="Q18" t="n">
-        <v>1406.436310190025</v>
+        <v>1318.466593713045</v>
       </c>
       <c r="R18" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S18" t="n">
         <v>1318.353763676959</v>
       </c>
       <c r="T18" t="n">
-        <v>1162.986318945598</v>
+        <v>1197.769638811435</v>
       </c>
       <c r="U18" t="n">
-        <v>965.7003789066938</v>
+        <v>1197.769638811435</v>
       </c>
       <c r="V18" t="n">
-        <v>751.9888518997276</v>
+        <v>1197.769638811435</v>
       </c>
       <c r="W18" t="n">
-        <v>538.7556836360563</v>
+        <v>984.5364705477643</v>
       </c>
       <c r="X18" t="n">
-        <v>538.7556836360563</v>
+        <v>808.2104886866571</v>
       </c>
       <c r="Y18" t="n">
-        <v>432.7787976901343</v>
+        <v>648.8085290504871</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.9996685172621</v>
+        <v>333.9762492969423</v>
       </c>
       <c r="C19" t="n">
-        <v>638.9062960789786</v>
+        <v>192.7916974474799</v>
       </c>
       <c r="D19" t="n">
-        <v>638.9062960789786</v>
+        <v>192.7916974474799</v>
       </c>
       <c r="E19" t="n">
-        <v>477.9954809472981</v>
+        <v>192.7916974474799</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3281286831983</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="G19" t="n">
-        <v>261.9043974937167</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="H19" t="n">
-        <v>119.6467001855875</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="I19" t="n">
-        <v>28.16057155807115</v>
+        <v>28.16057155807116</v>
       </c>
       <c r="J19" t="n">
-        <v>34.52355860771029</v>
+        <v>99.5249222390467</v>
       </c>
       <c r="K19" t="n">
-        <v>76.92728851436102</v>
+        <v>348.2088457314116</v>
       </c>
       <c r="L19" t="n">
-        <v>425.4143615454914</v>
+        <v>696.6959187625422</v>
       </c>
       <c r="M19" t="n">
-        <v>773.9014345766218</v>
+        <v>839.1961154808477</v>
       </c>
       <c r="N19" t="n">
-        <v>1009.674354965268</v>
+        <v>911.9847240956304</v>
       </c>
       <c r="O19" t="n">
-        <v>1358.161427996398</v>
+        <v>970.9899843174435</v>
       </c>
       <c r="P19" t="n">
-        <v>1400.930523280386</v>
+        <v>1274.656563074549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="R19" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S19" t="n">
-        <v>1236.043237051623</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="T19" t="n">
-        <v>1236.043237051623</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="U19" t="n">
-        <v>1236.043237051623</v>
+        <v>1125.275520988863</v>
       </c>
       <c r="V19" t="n">
-        <v>1236.043237051623</v>
+        <v>851.3897759283846</v>
       </c>
       <c r="W19" t="n">
-        <v>1236.043237051623</v>
+        <v>572.3201114372589</v>
       </c>
       <c r="X19" t="n">
-        <v>997.6993749113064</v>
+        <v>333.9762492969423</v>
       </c>
       <c r="Y19" t="n">
-        <v>997.6993749113064</v>
+        <v>333.9762492969423</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>696.9030335078212</v>
+        <v>399.0268426418655</v>
       </c>
       <c r="C20" t="n">
-        <v>696.9030335078212</v>
+        <v>399.0268426418655</v>
       </c>
       <c r="D20" t="n">
-        <v>341.3402613099533</v>
+        <v>43.4640704439972</v>
       </c>
       <c r="E20" t="n">
-        <v>341.3402613099533</v>
+        <v>43.4640704439972</v>
       </c>
       <c r="F20" t="n">
-        <v>341.3402613099533</v>
+        <v>43.4640704439972</v>
       </c>
       <c r="G20" t="n">
-        <v>28.16057155807114</v>
+        <v>43.4640704439972</v>
       </c>
       <c r="H20" t="n">
-        <v>28.16057155807114</v>
+        <v>43.4640704439972</v>
       </c>
       <c r="I20" t="n">
-        <v>28.16057155807114</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J20" t="n">
         <v>108.8711159788284</v>
@@ -5758,46 +5758,46 @@
         <v>250.3843999048784</v>
       </c>
       <c r="L20" t="n">
-        <v>440.8893556281532</v>
+        <v>440.8893556281536</v>
       </c>
       <c r="M20" t="n">
-        <v>665.6889474103933</v>
+        <v>665.6889474103937</v>
       </c>
       <c r="N20" t="n">
-        <v>895.9946240018348</v>
+        <v>895.9946240018353</v>
       </c>
       <c r="O20" t="n">
-        <v>1108.064962901807</v>
+        <v>1108.064962901808</v>
       </c>
       <c r="P20" t="n">
-        <v>1275.089185384362</v>
+        <v>1275.089185384363</v>
       </c>
       <c r="Q20" t="n">
-        <v>1381.00745820269</v>
+        <v>1381.007458202691</v>
       </c>
       <c r="R20" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S20" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="T20" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="U20" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="V20" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="W20" t="n">
-        <v>1408.028577903557</v>
+        <v>1110.152387037602</v>
       </c>
       <c r="X20" t="n">
-        <v>1408.028577903557</v>
+        <v>754.5896148397338</v>
       </c>
       <c r="Y20" t="n">
-        <v>1052.465805705689</v>
+        <v>399.0268426418655</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>365.6326919934621</v>
+        <v>391.6083386342929</v>
       </c>
       <c r="C21" t="n">
-        <v>231.6376207424078</v>
+        <v>257.6132673832386</v>
       </c>
       <c r="D21" t="n">
-        <v>231.6376207424078</v>
+        <v>257.6132673832386</v>
       </c>
       <c r="E21" t="n">
-        <v>111.1448047347358</v>
+        <v>137.1204513755666</v>
       </c>
       <c r="F21" t="n">
-        <v>28.16057155807114</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="G21" t="n">
-        <v>28.16057155807114</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="H21" t="n">
-        <v>28.16057155807114</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="I21" t="n">
-        <v>41.09835474629409</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J21" t="n">
-        <v>81.54777406313229</v>
+        <v>306.0098110571386</v>
       </c>
       <c r="K21" t="n">
-        <v>182.3349783779213</v>
+        <v>406.7970153719276</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8220514090516</v>
+        <v>561.078478654539</v>
       </c>
       <c r="M21" t="n">
-        <v>718.7007736831255</v>
+        <v>748.957200928613</v>
       </c>
       <c r="N21" t="n">
-        <v>917.3875878760857</v>
+        <v>947.6440151215733</v>
       </c>
       <c r="O21" t="n">
-        <v>1090.148189187291</v>
+        <v>1120.404616432779</v>
       </c>
       <c r="P21" t="n">
-        <v>1220.973910754661</v>
+        <v>1251.230338000149</v>
       </c>
       <c r="Q21" t="n">
-        <v>1318.466593713044</v>
+        <v>1318.466593713045</v>
       </c>
       <c r="R21" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S21" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="T21" t="n">
-        <v>1252.661133172196</v>
+        <v>1252.661133172197</v>
       </c>
       <c r="U21" t="n">
-        <v>1055.375193133292</v>
+        <v>1055.375193133294</v>
       </c>
       <c r="V21" t="n">
-        <v>841.663666126326</v>
+        <v>841.6636661263274</v>
       </c>
       <c r="W21" t="n">
-        <v>841.663666126326</v>
+        <v>628.4304978626561</v>
       </c>
       <c r="X21" t="n">
-        <v>665.3376842652187</v>
+        <v>628.4304978626561</v>
       </c>
       <c r="Y21" t="n">
-        <v>505.9357246290488</v>
+        <v>469.0285382264861</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>285.8731654367625</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="C22" t="n">
-        <v>114.779792998479</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="D22" t="n">
-        <v>114.779792998479</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="E22" t="n">
-        <v>114.779792998479</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="F22" t="n">
-        <v>114.779792998479</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="G22" t="n">
-        <v>114.779792998479</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="H22" t="n">
-        <v>28.16057155807114</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="I22" t="n">
-        <v>28.16057155807114</v>
+        <v>28.16057155807117</v>
       </c>
       <c r="J22" t="n">
-        <v>99.52492223904667</v>
+        <v>34.52355860771033</v>
       </c>
       <c r="K22" t="n">
-        <v>141.9286521456974</v>
+        <v>76.92728851436109</v>
       </c>
       <c r="L22" t="n">
-        <v>208.3026754023668</v>
+        <v>341.2845382392069</v>
       </c>
       <c r="M22" t="n">
-        <v>556.7897484334972</v>
+        <v>689.7716112703376</v>
       </c>
       <c r="N22" t="n">
-        <v>905.2768214646275</v>
+        <v>1038.258684301468</v>
       </c>
       <c r="O22" t="n">
-        <v>1253.763894495758</v>
+        <v>1097.263944523281</v>
       </c>
       <c r="P22" t="n">
-        <v>1296.532989779746</v>
+        <v>1400.930523280387</v>
       </c>
       <c r="Q22" t="n">
-        <v>1408.028577903557</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="R22" t="n">
-        <v>1359.925494043378</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="S22" t="n">
-        <v>1359.925494043378</v>
+        <v>1408.028577903558</v>
       </c>
       <c r="T22" t="n">
-        <v>1359.925494043378</v>
+        <v>1172.011931116063</v>
       </c>
       <c r="U22" t="n">
-        <v>1077.172437128683</v>
+        <v>1044.195541861227</v>
       </c>
       <c r="V22" t="n">
-        <v>803.2866920682047</v>
+        <v>770.3097968007487</v>
       </c>
       <c r="W22" t="n">
-        <v>524.2170275770791</v>
+        <v>491.2401323096231</v>
       </c>
       <c r="X22" t="n">
-        <v>285.8731654367625</v>
+        <v>252.8962701693065</v>
       </c>
       <c r="Y22" t="n">
-        <v>285.8731654367625</v>
+        <v>28.16057155807117</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>865.9807788993206</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="C23" t="n">
-        <v>865.9807788993206</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="D23" t="n">
-        <v>461.5168489923811</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923811</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G23" t="n">
         <v>40.48643694606871</v>
@@ -5986,22 +5986,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I23" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L23" t="n">
         <v>641.1850750879075</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501302</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N23" t="n">
-        <v>1272.218803576256</v>
+        <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
         <v>1568.017893256777</v>
@@ -6013,28 +6013,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R23" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S23" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>2024.321847303435</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.321847303435</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V23" t="n">
-        <v>2024.321847303435</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W23" t="n">
-        <v>2024.321847303435</v>
+        <v>821.9318111668022</v>
       </c>
       <c r="X23" t="n">
-        <v>1677.13863161572</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="Y23" t="n">
-        <v>1276.20195856381</v>
+        <v>446.8647950441848</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606871</v>
@@ -6068,31 +6068,31 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399047</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711962</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8830449928535</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M24" t="n">
-        <v>739.1312627518215</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N24" t="n">
-        <v>1240.150919959422</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O24" t="n">
-        <v>1723.446597132246</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P24" t="n">
-        <v>1905.044918568429</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
         <v>1939.686028373151</v>
@@ -6110,10 +6110,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.90316016604518</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="C25" t="n">
-        <v>40.48643694606871</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="D25" t="n">
-        <v>40.48643694606871</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="E25" t="n">
-        <v>40.48643694606871</v>
+        <v>302.8016446061403</v>
       </c>
       <c r="F25" t="n">
-        <v>40.48643694606871</v>
+        <v>138.1705187167315</v>
       </c>
       <c r="G25" t="n">
         <v>40.48643694606871</v>
@@ -6150,49 +6150,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K25" t="n">
-        <v>402.1925459421785</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L25" t="n">
-        <v>815.6863250168145</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M25" t="n">
-        <v>1266.896543402695</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.145037964104</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062865</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P25" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q25" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R25" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S25" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T25" t="n">
-        <v>1583.378488176654</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.637836863245</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V25" t="n">
-        <v>1026.752091802767</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W25" t="n">
-        <v>747.6824273116415</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X25" t="n">
-        <v>509.3385651713249</v>
+        <v>715.2370496114199</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6028665600896</v>
+        <v>490.5013510001846</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="C26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="D26" t="n">
-        <v>1362.985419736731</v>
+        <v>1069.33360051358</v>
       </c>
       <c r="E26" t="n">
-        <v>948.6452042536273</v>
+        <v>1069.33360051358</v>
       </c>
       <c r="F26" t="n">
-        <v>527.6147922073148</v>
+        <v>648.3031884672675</v>
       </c>
       <c r="G26" t="n">
-        <v>121.2364341091987</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606871</v>
@@ -6229,13 +6229,13 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879079</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
@@ -6253,25 +6253,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T26" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="W26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="X26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.44934964367</v>
+        <v>1473.797530420519</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C27" t="n">
-        <v>551.1732185579544</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D27" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E27" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F27" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G27" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692776</v>
       </c>
       <c r="H27" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J27" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K27" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L27" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M27" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.251520084358</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O27" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P27" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R27" t="n">
         <v>2024.321847303436</v>
@@ -6335,7 +6335,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U27" t="n">
         <v>1588.14395921251</v>
@@ -6347,10 +6347,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X27" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y27" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>757.1067645494038</v>
+        <v>1003.048274546781</v>
       </c>
       <c r="C28" t="n">
-        <v>757.1067645494038</v>
+        <v>831.9549021084979</v>
       </c>
       <c r="D28" t="n">
-        <v>757.1067645494038</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1959494177233</v>
+        <v>511.5494422997273</v>
       </c>
       <c r="F28" t="n">
-        <v>431.5648235283147</v>
+        <v>346.9183164103185</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3685283624266</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H28" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I28" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="J28" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K28" t="n">
-        <v>130.910988725128</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L28" t="n">
-        <v>544.4047677997639</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M28" t="n">
-        <v>995.6149861856445</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N28" t="n">
-        <v>1434.549212761691</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O28" t="n">
-        <v>1840.136554279192</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P28" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.445114104106</v>
+        <v>1986.445114104105</v>
       </c>
       <c r="S28" t="n">
         <v>1818.423362863341</v>
       </c>
       <c r="T28" t="n">
-        <v>1781.99664110549</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="U28" t="n">
-        <v>1499.255989792081</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.255989792081</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.186325300956</v>
+        <v>1653.827541692378</v>
       </c>
       <c r="X28" t="n">
-        <v>981.8424631606391</v>
+        <v>1415.483679552061</v>
       </c>
       <c r="Y28" t="n">
-        <v>757.1067645494038</v>
+        <v>1190.747980940826</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1623.678449472388</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="C29" t="n">
-        <v>1623.678449472388</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="D29" t="n">
-        <v>1569.077740205682</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="E29" t="n">
-        <v>1154.737524722578</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="F29" t="n">
-        <v>733.707112676266</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G29" t="n">
         <v>327.3287545781499</v>
@@ -6460,22 +6460,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746552</v>
+        <v>44.6457459074655</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K29" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O29" t="n">
         <v>1568.017893256777</v>
@@ -6487,28 +6487,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R29" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="U29" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369036</v>
       </c>
       <c r="V29" t="n">
-        <v>2024.321847303436</v>
+        <v>1335.879658705517</v>
       </c>
       <c r="W29" t="n">
-        <v>2024.321847303436</v>
+        <v>952.1193578406858</v>
       </c>
       <c r="X29" t="n">
-        <v>1623.678449472388</v>
+        <v>551.4759600096384</v>
       </c>
       <c r="Y29" t="n">
-        <v>1623.678449472388</v>
+        <v>551.4759600096384</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579548</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521798</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H30" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>108.5806640902073</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
-        <v>252.3026566214988</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L30" t="n">
-        <v>464.3152411431561</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M30" t="n">
-        <v>719.5634589021241</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N30" t="n">
-        <v>1220.583116109724</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1721.602773317325</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P30" t="n">
-        <v>1903.201094753508</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2004.377488887598</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S30" t="n">
         <v>1939.686028373151</v>
@@ -6581,13 +6581,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W30" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807658</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445958</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.9249114068101</v>
+        <v>366.028377967158</v>
       </c>
       <c r="C31" t="n">
-        <v>93.83153896852662</v>
+        <v>366.028377967158</v>
       </c>
       <c r="D31" t="n">
-        <v>40.48643694606871</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E31" t="n">
-        <v>40.48643694606871</v>
+        <v>205.1175628354774</v>
       </c>
       <c r="F31" t="n">
         <v>40.48643694606871</v>
@@ -6624,49 +6624,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K31" t="n">
-        <v>219.6034981877563</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L31" t="n">
-        <v>633.0972772623923</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M31" t="n">
-        <v>1084.307495648273</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.241722224319</v>
+        <v>1136.070278545363</v>
       </c>
       <c r="O31" t="n">
-        <v>1928.829063741821</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949587</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q31" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U31" t="n">
-        <v>1468.65958810401</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.773843043532</v>
+        <v>1064.628825002097</v>
       </c>
       <c r="W31" t="n">
-        <v>915.7041785524063</v>
+        <v>829.1079387187099</v>
       </c>
       <c r="X31" t="n">
-        <v>677.3603164120898</v>
+        <v>590.7640765783933</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.6246178008545</v>
+        <v>366.028377967158</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>731.7926844850894</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C32" t="n">
-        <v>731.7926844850894</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D32" t="n">
-        <v>327.3287545781499</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E32" t="n">
-        <v>327.3287545781499</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746551</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752964</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879072</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O32" t="n">
         <v>1568.017893256777</v>
@@ -6724,28 +6724,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S32" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028802</v>
       </c>
       <c r="T32" t="n">
-        <v>2024.321847303436</v>
+        <v>1730.670028080285</v>
       </c>
       <c r="U32" t="n">
-        <v>1892.788091865008</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="V32" t="n">
-        <v>1542.950537201489</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="W32" t="n">
-        <v>1542.950537201489</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="X32" t="n">
-        <v>1542.950537201489</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1142.013864149579</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090089</v>
+        <v>685.1682898090083</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579547</v>
+        <v>551.173218557954</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773471</v>
+        <v>434.2760607773464</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696751</v>
+        <v>313.7832447696744</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521796</v>
+        <v>204.823364952179</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692753</v>
+        <v>99.09057352692683</v>
       </c>
       <c r="H33" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J33" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K33" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L33" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.00330232539</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N33" t="n">
-        <v>1487.424908378267</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O33" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P33" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R33" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S33" t="n">
         <v>1939.686028373151</v>
@@ -6818,13 +6818,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W33" t="n">
-        <v>1161.199263941873</v>
+        <v>1161.199263941872</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807655</v>
+        <v>984.873282080765</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445956</v>
+        <v>825.471322444595</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>928.2001369876873</v>
+        <v>134.7798933653754</v>
       </c>
       <c r="C34" t="n">
-        <v>757.1067645494038</v>
+        <v>134.7798933653754</v>
       </c>
       <c r="D34" t="n">
-        <v>757.1067645494038</v>
+        <v>134.7798933653754</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>134.7798933653754</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>134.7798933653754</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606871</v>
@@ -6861,49 +6861,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>195.9123523564644</v>
+        <v>219.6034981877558</v>
       </c>
       <c r="L34" t="n">
-        <v>609.4061314311003</v>
+        <v>633.0972772623918</v>
       </c>
       <c r="M34" t="n">
-        <v>1060.616349816981</v>
+        <v>1084.307495648272</v>
       </c>
       <c r="N34" t="n">
-        <v>1499.550576393027</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O34" t="n">
-        <v>1905.137917910529</v>
+        <v>1928.82906374182</v>
       </c>
       <c r="P34" t="n">
-        <v>1974.866970118295</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R34" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U34" t="n">
-        <v>2024.321847303436</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="V34" t="n">
-        <v>1858.049068624409</v>
+        <v>1064.628825002097</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.979404133283</v>
+        <v>785.5591605109717</v>
       </c>
       <c r="X34" t="n">
-        <v>1340.635541992967</v>
+        <v>547.2152983706551</v>
       </c>
       <c r="Y34" t="n">
-        <v>1115.899843381732</v>
+        <v>322.4795997594198</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>890.0805939440377</v>
+        <v>551.4759600096388</v>
       </c>
       <c r="C35" t="n">
-        <v>890.0805939440377</v>
+        <v>551.4759600096388</v>
       </c>
       <c r="D35" t="n">
-        <v>890.0805939440377</v>
+        <v>551.4759600096388</v>
       </c>
       <c r="E35" t="n">
-        <v>890.0805939440377</v>
+        <v>551.4759600096388</v>
       </c>
       <c r="F35" t="n">
-        <v>469.0501818977252</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="G35" t="n">
-        <v>62.67182379960911</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576256</v>
@@ -6964,25 +6964,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303436</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303436</v>
+        <v>1685.717213369037</v>
       </c>
       <c r="V35" t="n">
-        <v>1674.484292639916</v>
+        <v>1335.879658705518</v>
       </c>
       <c r="W35" t="n">
-        <v>1290.723991775085</v>
+        <v>952.1193578406862</v>
       </c>
       <c r="X35" t="n">
-        <v>890.0805939440377</v>
+        <v>551.4759600096388</v>
       </c>
       <c r="Y35" t="n">
-        <v>890.0805939440377</v>
+        <v>551.4759600096388</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J36" t="n">
-        <v>352.2490680648406</v>
+        <v>208.7594707336913</v>
       </c>
       <c r="K36" t="n">
-        <v>495.9710605961321</v>
+        <v>352.4814632649828</v>
       </c>
       <c r="L36" t="n">
-        <v>707.9836451177894</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M36" t="n">
-        <v>963.2318628767574</v>
+        <v>819.7422655456081</v>
       </c>
       <c r="N36" t="n">
-        <v>1464.251520084358</v>
+        <v>1087.581645304757</v>
       </c>
       <c r="O36" t="n">
-        <v>1700.273208838337</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P36" t="n">
-        <v>1881.87153027452</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
@@ -7058,10 +7058,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.90316016604564</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="C37" t="n">
-        <v>40.48643694606871</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="D37" t="n">
-        <v>40.48643694606871</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="E37" t="n">
-        <v>40.48643694606871</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="F37" t="n">
-        <v>40.48643694606871</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="G37" t="n">
         <v>40.48643694606871</v>
@@ -7098,16 +7098,16 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>609.4061314311003</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M37" t="n">
-        <v>823.4100121751546</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N37" t="n">
-        <v>1262.344238751201</v>
+        <v>1577.418998169941</v>
       </c>
       <c r="O37" t="n">
         <v>1667.931580268702</v>
@@ -7119,28 +7119,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.752091802768</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>747.682427311642</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X37" t="n">
-        <v>509.3385651713253</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.60286656009</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1213.163994587036</v>
+        <v>855.0749575397381</v>
       </c>
       <c r="C38" t="n">
-        <v>1213.163994587036</v>
+        <v>444.9503668530082</v>
       </c>
       <c r="D38" t="n">
-        <v>1213.163994587036</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E38" t="n">
-        <v>867.8952070904973</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F38" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G38" t="n">
         <v>40.48643694606871</v>
@@ -7171,10 +7171,10 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
         <v>372.2593058752964</v>
@@ -7183,10 +7183,10 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O38" t="n">
         <v>1568.017893256777</v>
@@ -7195,7 +7195,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q38" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
         <v>2024.321847303436</v>
@@ -7216,10 +7216,10 @@
         <v>2024.321847303436</v>
       </c>
       <c r="X38" t="n">
-        <v>2024.321847303436</v>
+        <v>1623.678449472388</v>
       </c>
       <c r="Y38" t="n">
-        <v>1623.385174251526</v>
+        <v>1222.741776420478</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>204.8233649521794</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606871</v>
@@ -7253,25 +7253,25 @@
         <v>43.01083102505505</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5806640902073</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K39" t="n">
-        <v>252.3026566214988</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L39" t="n">
-        <v>464.3152411431561</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M39" t="n">
-        <v>965.3348983507565</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N39" t="n">
-        <v>1233.174278109906</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O39" t="n">
-        <v>1723.446597132247</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P39" t="n">
-        <v>1905.04491856843</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q39" t="n">
         <v>2006.22131270252</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>785.5591605109721</v>
+        <v>1087.694781664777</v>
       </c>
       <c r="C40" t="n">
-        <v>785.5591605109721</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="D40" t="n">
         <v>757.1067645494038</v>
@@ -7332,25 +7332,25 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J40" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>130.910988725128</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L40" t="n">
-        <v>544.4047677997639</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M40" t="n">
-        <v>823.4100121751546</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N40" t="n">
-        <v>1262.344238751201</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.931580268702</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P40" t="n">
-        <v>1998.558115949587</v>
+        <v>1974.866970118295</v>
       </c>
       <c r="Q40" t="n">
         <v>2024.321847303436</v>
@@ -7365,19 +7365,19 @@
         <v>1621.255221375984</v>
       </c>
       <c r="U40" t="n">
-        <v>1338.514570062576</v>
+        <v>1550.774342416329</v>
       </c>
       <c r="V40" t="n">
-        <v>1064.628825002098</v>
+        <v>1550.774342416329</v>
       </c>
       <c r="W40" t="n">
-        <v>785.5591605109721</v>
+        <v>1550.774342416329</v>
       </c>
       <c r="X40" t="n">
-        <v>785.5591605109721</v>
+        <v>1312.430480276013</v>
       </c>
       <c r="Y40" t="n">
-        <v>785.5591605109721</v>
+        <v>1087.694781664777</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.100667638947</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.976076952217</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="D41" t="n">
-        <v>1203.976076952217</v>
+        <v>1148.047328159369</v>
       </c>
       <c r="E41" t="n">
-        <v>867.8952070904973</v>
+        <v>733.707112676266</v>
       </c>
       <c r="F41" t="n">
-        <v>446.8647950441848</v>
+        <v>733.707112676266</v>
       </c>
       <c r="G41" t="n">
-        <v>40.48643694606872</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H41" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746588</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492902</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.242931950131</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
         <v>1806.502667397418</v>
@@ -7444,19 +7444,19 @@
         <v>2024.321847303436</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303436</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303436</v>
+        <v>1558.268507823859</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.321847303436</v>
+        <v>1558.268507823859</v>
       </c>
       <c r="X41" t="n">
-        <v>2024.321847303436</v>
+        <v>1558.268507823859</v>
       </c>
       <c r="Y41" t="n">
-        <v>2024.321847303436</v>
+        <v>1558.268507823859</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H42" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="I42" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J42" t="n">
-        <v>108.5806640902073</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K42" t="n">
-        <v>252.3026566214988</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L42" t="n">
-        <v>464.3152411431561</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M42" t="n">
-        <v>721.4072827170462</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N42" t="n">
-        <v>1222.426939924647</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O42" t="n">
-        <v>1723.446597132247</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P42" t="n">
-        <v>1905.04491856843</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
@@ -7532,10 +7532,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1003.048274546781</v>
+        <v>843.5536298696913</v>
       </c>
       <c r="C43" t="n">
-        <v>831.9549021084979</v>
+        <v>672.4602574314079</v>
       </c>
       <c r="D43" t="n">
         <v>672.4602574314079</v>
@@ -7572,22 +7572,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L43" t="n">
-        <v>609.4061314311003</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M43" t="n">
-        <v>1060.616349816981</v>
+        <v>921.9301938884096</v>
       </c>
       <c r="N43" t="n">
-        <v>1499.550576393027</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O43" t="n">
-        <v>1905.137917910529</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P43" t="n">
-        <v>1974.866970118295</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
@@ -7605,16 +7605,16 @@
         <v>1338.514570062576</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.514570062576</v>
+        <v>1068.289328480927</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.514570062576</v>
+        <v>1068.289328480927</v>
       </c>
       <c r="X43" t="n">
-        <v>1338.514570062576</v>
+        <v>1068.289328480927</v>
       </c>
       <c r="Y43" t="n">
-        <v>1190.747980940826</v>
+        <v>843.5536298696913</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>40.48643694606872</v>
+        <v>1541.946313197755</v>
       </c>
       <c r="C44" t="n">
-        <v>40.48643694606872</v>
+        <v>1280.320994382424</v>
       </c>
       <c r="D44" t="n">
-        <v>40.48643694606872</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E44" t="n">
-        <v>40.48643694606872</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F44" t="n">
         <v>40.48643694606872</v>
@@ -7651,10 +7651,10 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752969</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879081</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M44" t="n">
         <v>953.242931950131</v>
@@ -7678,22 +7678,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.670028080286</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="U44" t="n">
-        <v>1575.664363357377</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="V44" t="n">
-        <v>1225.826808693857</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="W44" t="n">
-        <v>842.066507829026</v>
+        <v>1942.589711028803</v>
       </c>
       <c r="X44" t="n">
-        <v>441.4231099979786</v>
+        <v>1541.946313197755</v>
       </c>
       <c r="Y44" t="n">
-        <v>40.48643694606872</v>
+        <v>1541.946313197755</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606872</v>
@@ -7727,28 +7727,28 @@
         <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>128.1484679399047</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>629.1681251475052</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L45" t="n">
-        <v>841.1807096691625</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M45" t="n">
-        <v>1096.42892742813</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.26830718728</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1600.289995941259</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P45" t="n">
-        <v>1781.888317377442</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.7798933653761</v>
+        <v>691.4062897392627</v>
       </c>
       <c r="C46" t="n">
-        <v>134.7798933653761</v>
+        <v>665.7586069426097</v>
       </c>
       <c r="D46" t="n">
-        <v>134.7798933653761</v>
+        <v>506.2639622655198</v>
       </c>
       <c r="E46" t="n">
-        <v>134.7798933653761</v>
+        <v>345.3531471338392</v>
       </c>
       <c r="F46" t="n">
-        <v>40.48643694606872</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606872</v>
+        <v>180.7220212444305</v>
       </c>
       <c r="H46" t="n">
         <v>40.48643694606872</v>
@@ -7809,22 +7809,22 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>195.9123523564644</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>609.4061314311003</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>1060.616349816981</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N46" t="n">
-        <v>1499.550576393027</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O46" t="n">
-        <v>1905.137917910529</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
@@ -7839,19 +7839,19 @@
         <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>1338.514570062576</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="V46" t="n">
-        <v>1064.628825002098</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="W46" t="n">
-        <v>785.5591605109723</v>
+        <v>1342.185556884859</v>
       </c>
       <c r="X46" t="n">
-        <v>547.2152983706558</v>
+        <v>1103.841694744542</v>
       </c>
       <c r="Y46" t="n">
-        <v>322.4795997594205</v>
+        <v>879.105996133307</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +8458,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L8" t="n">
-        <v>35.16270217958864</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M8" t="n">
-        <v>26.16960234776164</v>
+        <v>26.16960234776165</v>
       </c>
       <c r="N8" t="n">
         <v>24.70558680915735</v>
@@ -8470,7 +8470,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P8" t="n">
-        <v>38.68062560122957</v>
+        <v>38.68062560122958</v>
       </c>
       <c r="Q8" t="n">
         <v>48.7545716309821</v>
@@ -8540,7 +8540,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M9" t="n">
-        <v>5.742459823057352</v>
+        <v>5.742459823057359</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.696990567145903</v>
+        <v>6.696990567145889</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>82.52639665108723</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.52639665108796</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>76.8951247087233</v>
+        <v>43.56054234963595</v>
       </c>
       <c r="M13" t="n">
-        <v>279.9852194050532</v>
+        <v>279.9852194050534</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>278.4832973902505</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>292.4058715245634</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>226.7293302969757</v>
       </c>
       <c r="K15" t="n">
-        <v>69.45792878419525</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>189.4940936608526</v>
       </c>
       <c r="M16" t="n">
-        <v>242.7313846032981</v>
+        <v>279.9852194050534</v>
       </c>
       <c r="N16" t="n">
-        <v>278.4832973902502</v>
+        <v>278.4832973902505</v>
       </c>
       <c r="O16" t="n">
-        <v>292.4058715245631</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6.696990567145903</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>82.52639665108723</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>226.7293302969755</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>284.9626765398597</v>
+        <v>284.9626765398598</v>
       </c>
       <c r="M19" t="n">
-        <v>279.9852194050532</v>
+        <v>71.91766757391679</v>
       </c>
       <c r="N19" t="n">
-        <v>164.6306179533973</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>292.4058715245631</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>6.696990567145889</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>239.7977981638678</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>196.1672825742616</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.56204772271322</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>199.983057038562</v>
       </c>
       <c r="M22" t="n">
-        <v>279.985219405053</v>
+        <v>279.9852194050534</v>
       </c>
       <c r="N22" t="n">
-        <v>278.4832973902501</v>
+        <v>278.4832973902505</v>
       </c>
       <c r="O22" t="n">
-        <v>292.4058715245631</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.4520540410506</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5356337863141</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>249.7717054735809</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>23.93045033463827</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9807,16 +9807,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
-        <v>78.12986811408918</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5356337863142</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>23.40746292314105</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.3193388037193</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631247</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>89.58839339659417</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>267.6747156097181</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R30" t="n">
-        <v>1.862448297901043</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>23.93045033463827</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631245</v>
       </c>
       <c r="N31" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>10.68911746841258</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>23.93045033463783</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.93045033463853</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>81.42525534725914</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.40746292314124</v>
+        <v>403.8820839126365</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8484968408679</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>205.6793228674604</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.8188184528907</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>258.9430967094555</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>174.5064399028239</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>23.93045033463853</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.862448297901096</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>267.6747156097181</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>108.3233934631251</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.93045033463876</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>360.9067319962717</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.4006072636242</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>23.93045033463855</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>58.18966885238291</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>64.81296344995997</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>402.8165338214679</v>
@@ -23278,7 +23278,7 @@
         <v>289.1145851812601</v>
       </c>
       <c r="I11" t="n">
-        <v>15.1504638970668</v>
+        <v>15.15046389706677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.35321255937379</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.6258841878958</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>27.91555338029349</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>287.6089161241164</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23339,19 +23339,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.658557888540727</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.9440354161434</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>60.61193440420229</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>88.77806608433272</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>81.24123183788504</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>147.6495052277584</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.7594938775867</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.8351203350479</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.57126734124122</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.62205302157694</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>101.1644468015529</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9255263455484</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.11182339195523</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>95.97545192549933</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>48.41214613198071</v>
+        <v>48.41214613198042</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23515,7 +23515,7 @@
         <v>289.1145851812601</v>
       </c>
       <c r="I14" t="n">
-        <v>15.15046389706679</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.35321255937379</v>
+        <v>3.78563121682096</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9978129737496</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3439294275147</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>27.91555338029349</v>
       </c>
       <c r="X14" t="n">
-        <v>44.62981937684765</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>9.640978502509398</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>45.30369823577361</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>53.43074917600272</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
@@ -23670,10 +23670,10 @@
         <v>164.7594938775867</v>
       </c>
       <c r="H16" t="n">
-        <v>140.8351203350479</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>90.57126734124122</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.62205302157695</v>
+        <v>47.62205302157693</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>170.2654874434151</v>
       </c>
       <c r="T16" t="n">
         <v>233.6564803196206</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9255263455484</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>258.8991923814387</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>96.07107501348133</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>58.18966885238291</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>64.81296344995997</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.8165338214679</v>
+        <v>50.80938934557838</v>
       </c>
       <c r="H17" t="n">
         <v>289.1145851812601</v>
       </c>
       <c r="I17" t="n">
-        <v>15.1504638970668</v>
+        <v>3.785631216821317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.35321255937379</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.9978129737496</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3439294275147</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>27.9155533802936</v>
       </c>
       <c r="X17" t="n">
-        <v>44.62981937684765</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.9440354161434</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>60.61193440420229</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>34.43548666717894</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3130806385147</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.89082295334545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>29.60973238293289</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8141358890559</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.7594938775867</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.8351203350479</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>90.57126734124122</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.62205302157695</v>
+        <v>47.62205302157694</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>170.2654874434151</v>
       </c>
       <c r="T19" t="n">
         <v>233.6564803196206</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9255263455484</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.11182339195534</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>48.41214613198082</v>
+        <v>48.41214613198042</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>92.76864096710455</v>
+        <v>402.8165338214679</v>
       </c>
       <c r="H20" t="n">
         <v>289.1145851812601</v>
       </c>
       <c r="I20" t="n">
-        <v>15.1504638970668</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>85.02526889888645</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>44.62981937684737</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.92016184550158</v>
+        <v>44.92016184550118</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>62.25400471295947</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>25.71589017442246</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>104.9440354161434</v>
@@ -24110,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24144,7 +24144,7 @@
         <v>164.7594938775867</v>
       </c>
       <c r="H22" t="n">
-        <v>55.08209110904416</v>
+        <v>140.8351203350479</v>
       </c>
       <c r="I22" t="n">
         <v>90.57126734124122</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.62205302157694</v>
       </c>
       <c r="S22" t="n">
         <v>170.2654874434151</v>
       </c>
       <c r="T22" t="n">
-        <v>233.6564803196206</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>153.3873009832606</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>283.9738944557603</v>
@@ -24259,22 +24259,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>52.92558032189879</v>
+        <v>25.32061789134582</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>113.529882726124</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24375,10 +24375,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>67.82709126127304</v>
       </c>
       <c r="H25" t="n">
         <v>138.8332284553781</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>84.54988496690845</v>
       </c>
       <c r="H26" t="n">
-        <v>204.0313972642616</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>196.6319713995475</v>
+        <v>69.74456298056637</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>184.213234490671</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>346.3645884338305</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>105.0880472280858</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5343322142292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>43.11329042566081</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>124.0853547991246</v>
+        <v>220.1812513621227</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>71.1838103591156</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>106.5368367176368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>313.2550546100499</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>262.0103614707554</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>113.5298827261235</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>71.18381035911517</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>42.12881717591171</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>68.3807137066986</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25456,7 +25456,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>129.7318262283665</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>210.1371746302157</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>77.47675216516996</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>139.2501457152707</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>3.623898444040321</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>76.19941839459017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>147.0142791526845</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.3145745171349</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>100.8481646074883</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>143.9912327452143</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>69.63429277540038</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>83.80004204681616</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395742.4787152171</v>
+        <v>395742.4787152173</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395742.478715217</v>
+        <v>395742.4787152172</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>395742.478715217</v>
+        <v>395742.4787152173</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512982.247409502</v>
+        <v>512982.2474095022</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>512982.2474095021</v>
+        <v>512982.2474095022</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512982.2474095021</v>
+        <v>512982.247409502</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>512982.2474095021</v>
+        <v>512982.2474095022</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>512982.2474095021</v>
+        <v>512982.2474095022</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>512982.247409502</v>
+        <v>512982.2474095022</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512982.2474095023</v>
+        <v>512982.2474095022</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>52697.00667341307</v>
       </c>
       <c r="E2" t="n">
+        <v>163791.9300208874</v>
+      </c>
+      <c r="F2" t="n">
         <v>163791.9300208873</v>
-      </c>
-      <c r="F2" t="n">
-        <v>163791.9300208872</v>
       </c>
       <c r="G2" t="n">
         <v>163791.9300208872</v>
@@ -26334,7 +26334,7 @@
         <v>163791.9300208873</v>
       </c>
       <c r="I2" t="n">
-        <v>211565.4642249997</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="J2" t="n">
         <v>211565.4642249998</v>
@@ -26349,7 +26349,7 @@
         <v>211565.4642249998</v>
       </c>
       <c r="N2" t="n">
-        <v>211565.4642249997</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="O2" t="n">
         <v>211565.4642249998</v>
@@ -26374,10 +26374,10 @@
         <v>81432.90918651226</v>
       </c>
       <c r="E3" t="n">
-        <v>393322.7057914016</v>
+        <v>393322.7057914018</v>
       </c>
       <c r="F3" t="n">
-        <v>1.704436726868153e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134961.3600118797</v>
+        <v>134961.3600118795</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>87721.58843196952</v>
+        <v>87721.58843196963</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>14797.68177734712</v>
       </c>
       <c r="E4" t="n">
-        <v>13866.55219515679</v>
+        <v>13866.55219515681</v>
       </c>
       <c r="F4" t="n">
-        <v>13866.55219515679</v>
+        <v>13866.55219515681</v>
       </c>
       <c r="G4" t="n">
         <v>13866.5521951568</v>
       </c>
       <c r="H4" t="n">
-        <v>13866.55219515679</v>
+        <v>13866.55219515681</v>
       </c>
       <c r="I4" t="n">
-        <v>19768.34599043016</v>
+        <v>19768.34599043017</v>
       </c>
       <c r="J4" t="n">
         <v>19768.34599043016</v>
       </c>
       <c r="K4" t="n">
-        <v>19768.34599043017</v>
+        <v>19768.34599043016</v>
       </c>
       <c r="L4" t="n">
-        <v>19768.34599043017</v>
+        <v>19768.34599043016</v>
       </c>
       <c r="M4" t="n">
-        <v>19768.34599043017</v>
+        <v>19768.34599043016</v>
       </c>
       <c r="N4" t="n">
         <v>19768.34599043017</v>
       </c>
       <c r="O4" t="n">
-        <v>19768.34599043017</v>
+        <v>19768.34599043018</v>
       </c>
       <c r="P4" t="n">
-        <v>19768.34599043017</v>
+        <v>19768.34599043018</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>35700.4729566144</v>
       </c>
       <c r="E5" t="n">
-        <v>31295.66521949193</v>
+        <v>31295.66521949196</v>
       </c>
       <c r="F5" t="n">
-        <v>31295.66521949194</v>
+        <v>31295.66521949196</v>
       </c>
       <c r="G5" t="n">
-        <v>31295.66521949193</v>
+        <v>31295.66521949195</v>
       </c>
       <c r="H5" t="n">
-        <v>31295.66521949193</v>
+        <v>31295.66521949196</v>
       </c>
       <c r="I5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="J5" t="n">
         <v>43385.32273194157</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="L5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="M5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164716</v>
       </c>
       <c r="D6" t="n">
-        <v>-79234.05724706071</v>
+        <v>-80611.94305036905</v>
       </c>
       <c r="E6" t="n">
-        <v>-274692.9931851631</v>
+        <v>-275541.8555439597</v>
       </c>
       <c r="F6" t="n">
-        <v>118629.7126062383</v>
+        <v>117780.850247442</v>
       </c>
       <c r="G6" t="n">
-        <v>118629.7126062385</v>
+        <v>117780.8502474419</v>
       </c>
       <c r="H6" t="n">
-        <v>118629.7126062386</v>
+        <v>117780.850247442</v>
       </c>
       <c r="I6" t="n">
-        <v>13450.43549074829</v>
+        <v>12829.06615197155</v>
       </c>
       <c r="J6" t="n">
-        <v>148411.7955026281</v>
+        <v>147790.4261638511</v>
       </c>
       <c r="K6" t="n">
-        <v>148411.7955026281</v>
+        <v>147790.4261638512</v>
       </c>
       <c r="L6" t="n">
-        <v>148411.7955026281</v>
+        <v>147790.4261638511</v>
       </c>
       <c r="M6" t="n">
-        <v>60690.20707065857</v>
+        <v>60068.83773188152</v>
       </c>
       <c r="N6" t="n">
-        <v>148411.795502628</v>
+        <v>147790.4261638511</v>
       </c>
       <c r="O6" t="n">
-        <v>148411.7955026281</v>
+        <v>147790.4261638511</v>
       </c>
       <c r="P6" t="n">
-        <v>148411.795502628</v>
+        <v>147790.426163851</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>95.08591544102765</v>
       </c>
       <c r="E3" t="n">
-        <v>453.8362768512782</v>
+        <v>453.8362768512783</v>
       </c>
       <c r="F3" t="n">
-        <v>453.8362768512782</v>
+        <v>453.8362768512784</v>
       </c>
       <c r="G3" t="n">
-        <v>453.8362768512782</v>
+        <v>453.8362768512783</v>
       </c>
       <c r="H3" t="n">
-        <v>453.8362768512782</v>
+        <v>453.8362768512783</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040984</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="F4" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="G4" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758895</v>
       </c>
       <c r="H4" t="n">
-        <v>352.0071444758892</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="I4" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="L4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="M4" t="n">
         <v>506.0804618258589</v>
@@ -26968,10 +26968,10 @@
         <v>95.08591544102765</v>
       </c>
       <c r="E3" t="n">
-        <v>358.7503614102505</v>
+        <v>358.7503614102507</v>
       </c>
       <c r="F3" t="n">
-        <v>2.156300219329812e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>124.8623769528202</v>
+        <v>124.8623769528201</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154.0733173499696</v>
+        <v>154.0733173499693</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758897</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3822549364463421</v>
+        <v>0.382254936446342</v>
       </c>
       <c r="H8" t="n">
-        <v>3.914768367881102</v>
+        <v>3.914768367881101</v>
       </c>
       <c r="I8" t="n">
-        <v>14.73688343734762</v>
+        <v>14.73688343734761</v>
       </c>
       <c r="J8" t="n">
         <v>32.44340991221275</v>
@@ -31530,10 +31530,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L8" t="n">
-        <v>60.32269588325618</v>
+        <v>60.32269588325617</v>
       </c>
       <c r="M8" t="n">
-        <v>67.12062210928381</v>
+        <v>67.1206221092838</v>
       </c>
       <c r="N8" t="n">
         <v>68.20670394746197</v>
@@ -31542,7 +31542,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P8" t="n">
-        <v>54.96873767965459</v>
+        <v>54.96873767965458</v>
       </c>
       <c r="Q8" t="n">
         <v>41.27923276816995</v>
@@ -31557,7 +31557,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03058039491570735</v>
+        <v>0.03058039491570736</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2045244218920218</v>
+        <v>0.2045244218920217</v>
       </c>
       <c r="H9" t="n">
         <v>1.975275337746631</v>
@@ -31612,7 +31612,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M9" t="n">
-        <v>51.82182391536007</v>
+        <v>51.82182391536006</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -31633,7 +31633,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8243769461349471</v>
+        <v>0.8243769461349469</v>
       </c>
       <c r="U9" t="n">
         <v>0.01345555407184354</v>
@@ -31697,16 +31697,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O10" t="n">
-        <v>24.23599693896883</v>
+        <v>24.23599693896882</v>
       </c>
       <c r="P10" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.35797323159518</v>
+        <v>14.35797323159517</v>
       </c>
       <c r="R10" t="n">
-        <v>7.709753078218404</v>
+        <v>7.709753078218403</v>
       </c>
       <c r="S10" t="n">
         <v>2.98819180164672</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.824467444628252</v>
+        <v>1.824467444628253</v>
       </c>
       <c r="H11" t="n">
         <v>18.6848272172991</v>
       </c>
       <c r="I11" t="n">
-        <v>70.33778115903077</v>
+        <v>70.3377811590308</v>
       </c>
       <c r="J11" t="n">
         <v>154.8493937785173</v>
@@ -31767,31 +31767,31 @@
         <v>232.0791007096313</v>
       </c>
       <c r="L11" t="n">
-        <v>287.9146462681732</v>
+        <v>287.9146462681733</v>
       </c>
       <c r="M11" t="n">
-        <v>320.3605191865809</v>
+        <v>320.360519186581</v>
       </c>
       <c r="N11" t="n">
-        <v>325.5442873136309</v>
+        <v>325.5442873136311</v>
       </c>
       <c r="O11" t="n">
-        <v>307.4022391611088</v>
+        <v>307.4022391611089</v>
       </c>
       <c r="P11" t="n">
-        <v>262.3606991218487</v>
+        <v>262.3606991218488</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.0219587610993</v>
+        <v>197.0219587610994</v>
       </c>
       <c r="R11" t="n">
         <v>114.6062031186296</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57505189446635</v>
+        <v>41.57505189446636</v>
       </c>
       <c r="T11" t="n">
-        <v>7.98660623886018</v>
+        <v>7.986606238860182</v>
       </c>
       <c r="U11" t="n">
         <v>0.1459573955702602</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9761761426612399</v>
+        <v>0.9761761426612402</v>
       </c>
       <c r="H12" t="n">
-        <v>9.427806430438817</v>
+        <v>9.427806430438821</v>
       </c>
       <c r="I12" t="n">
-        <v>33.6095733328541</v>
+        <v>33.60957333285411</v>
       </c>
       <c r="J12" t="n">
-        <v>92.22723810993759</v>
+        <v>92.22723810993763</v>
       </c>
       <c r="K12" t="n">
-        <v>157.6310396682406</v>
+        <v>157.6310396682407</v>
       </c>
       <c r="L12" t="n">
         <v>211.9543857124767</v>
       </c>
       <c r="M12" t="n">
-        <v>247.3407708839466</v>
+        <v>247.3407708839467</v>
       </c>
       <c r="N12" t="n">
-        <v>253.8871451038108</v>
+        <v>253.8871451038109</v>
       </c>
       <c r="O12" t="n">
-        <v>232.2571368901065</v>
+        <v>232.2571368901066</v>
       </c>
       <c r="P12" t="n">
         <v>186.4068285051977</v>
@@ -31864,16 +31864,16 @@
         <v>124.6080283158453</v>
       </c>
       <c r="R12" t="n">
-        <v>60.60855033119525</v>
+        <v>60.60855033119527</v>
       </c>
       <c r="S12" t="n">
         <v>18.13204370250153</v>
       </c>
       <c r="T12" t="n">
-        <v>3.934674890814382</v>
+        <v>3.934674890814383</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0642221146487658</v>
+        <v>0.06422211464876583</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8183932861252556</v>
+        <v>0.818393286125256</v>
       </c>
       <c r="H13" t="n">
-        <v>7.276260307550006</v>
+        <v>7.276260307550008</v>
       </c>
       <c r="I13" t="n">
-        <v>24.61131809547588</v>
+        <v>24.61131809547589</v>
       </c>
       <c r="J13" t="n">
-        <v>57.86040532905557</v>
+        <v>57.86040532905559</v>
       </c>
       <c r="K13" t="n">
-        <v>95.08241996982514</v>
+        <v>95.08241996982517</v>
       </c>
       <c r="L13" t="n">
         <v>121.6727618299312</v>
@@ -31931,28 +31931,28 @@
         <v>128.2868675696162</v>
       </c>
       <c r="N13" t="n">
-        <v>125.2364925940585</v>
+        <v>125.2364925940586</v>
       </c>
       <c r="O13" t="n">
-        <v>115.6761710243225</v>
+        <v>115.6761710243226</v>
       </c>
       <c r="P13" t="n">
-        <v>98.98094798736724</v>
+        <v>98.98094798736727</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.529277804543</v>
+        <v>68.52927780454303</v>
       </c>
       <c r="R13" t="n">
-        <v>36.79793811977739</v>
+        <v>36.79793811977741</v>
       </c>
       <c r="S13" t="n">
         <v>14.26236299547377</v>
       </c>
       <c r="T13" t="n">
-        <v>3.496771313444273</v>
+        <v>3.496771313444274</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04463963378865036</v>
+        <v>0.04463963378865037</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.824467444628253</v>
       </c>
       <c r="H14" t="n">
-        <v>18.6848272172991</v>
+        <v>18.68482721729911</v>
       </c>
       <c r="I14" t="n">
-        <v>70.33778115903078</v>
+        <v>70.33778115903081</v>
       </c>
       <c r="J14" t="n">
-        <v>154.8493937785173</v>
+        <v>154.8493937785174</v>
       </c>
       <c r="K14" t="n">
-        <v>232.0791007096313</v>
+        <v>232.0791007096314</v>
       </c>
       <c r="L14" t="n">
-        <v>287.9146462681733</v>
+        <v>287.9146462681734</v>
       </c>
       <c r="M14" t="n">
-        <v>320.3605191865809</v>
+        <v>320.360519186581</v>
       </c>
       <c r="N14" t="n">
-        <v>325.544287313631</v>
+        <v>325.5442873136311</v>
       </c>
       <c r="O14" t="n">
-        <v>307.4022391611088</v>
+        <v>307.4022391611089</v>
       </c>
       <c r="P14" t="n">
-        <v>262.3606991218487</v>
+        <v>262.3606991218488</v>
       </c>
       <c r="Q14" t="n">
-        <v>197.0219587610994</v>
+        <v>197.0219587610995</v>
       </c>
       <c r="R14" t="n">
         <v>114.6062031186296</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57505189446636</v>
+        <v>41.57505189446637</v>
       </c>
       <c r="T14" t="n">
-        <v>7.986606238860181</v>
+        <v>7.986606238860183</v>
       </c>
       <c r="U14" t="n">
         <v>0.1459573955702602</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.97617614266124</v>
+        <v>0.9761761426612403</v>
       </c>
       <c r="H15" t="n">
-        <v>9.427806430438819</v>
+        <v>9.427806430438823</v>
       </c>
       <c r="I15" t="n">
-        <v>33.6095733328541</v>
+        <v>33.60957333285411</v>
       </c>
       <c r="J15" t="n">
-        <v>92.2272381099376</v>
+        <v>92.22723810993764</v>
       </c>
       <c r="K15" t="n">
         <v>157.6310396682407</v>
       </c>
       <c r="L15" t="n">
-        <v>211.9543857124767</v>
+        <v>211.9543857124768</v>
       </c>
       <c r="M15" t="n">
-        <v>247.3407708839466</v>
+        <v>247.3407708839467</v>
       </c>
       <c r="N15" t="n">
-        <v>253.8871451038108</v>
+        <v>253.887145103811</v>
       </c>
       <c r="O15" t="n">
-        <v>232.2571368901065</v>
+        <v>232.2571368901066</v>
       </c>
       <c r="P15" t="n">
-        <v>186.4068285051977</v>
+        <v>186.4068285051978</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.6080283158453</v>
+        <v>124.6080283158454</v>
       </c>
       <c r="R15" t="n">
-        <v>60.60855033119525</v>
+        <v>60.60855033119528</v>
       </c>
       <c r="S15" t="n">
-        <v>18.13204370250153</v>
+        <v>18.13204370250154</v>
       </c>
       <c r="T15" t="n">
-        <v>3.934674890814382</v>
+        <v>3.934674890814384</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06422211464876582</v>
+        <v>0.06422211464876584</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8183932861252557</v>
+        <v>0.8183932861252561</v>
       </c>
       <c r="H16" t="n">
-        <v>7.276260307550007</v>
+        <v>7.276260307550009</v>
       </c>
       <c r="I16" t="n">
-        <v>24.61131809547588</v>
+        <v>24.61131809547589</v>
       </c>
       <c r="J16" t="n">
-        <v>57.86040532905557</v>
+        <v>57.8604053290556</v>
       </c>
       <c r="K16" t="n">
-        <v>95.08241996982514</v>
+        <v>95.08241996982518</v>
       </c>
       <c r="L16" t="n">
-        <v>121.6727618299312</v>
+        <v>121.6727618299313</v>
       </c>
       <c r="M16" t="n">
         <v>128.2868675696162</v>
       </c>
       <c r="N16" t="n">
-        <v>125.2364925940585</v>
+        <v>125.2364925940586</v>
       </c>
       <c r="O16" t="n">
         <v>115.6761710243226</v>
       </c>
       <c r="P16" t="n">
-        <v>98.98094798736726</v>
+        <v>98.98094798736729</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.52927780454301</v>
+        <v>68.52927780454304</v>
       </c>
       <c r="R16" t="n">
-        <v>36.7979381197774</v>
+        <v>36.79793811977741</v>
       </c>
       <c r="S16" t="n">
-        <v>14.26236299547377</v>
+        <v>14.26236299547378</v>
       </c>
       <c r="T16" t="n">
-        <v>3.496771313444273</v>
+        <v>3.496771313444275</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04463963378865037</v>
+        <v>0.04463963378865038</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.824467444628252</v>
+        <v>1.824467444628253</v>
       </c>
       <c r="H17" t="n">
         <v>18.6848272172991</v>
       </c>
       <c r="I17" t="n">
-        <v>70.33778115903077</v>
+        <v>70.3377811590308</v>
       </c>
       <c r="J17" t="n">
         <v>154.8493937785173</v>
@@ -32241,31 +32241,31 @@
         <v>232.0791007096313</v>
       </c>
       <c r="L17" t="n">
-        <v>287.9146462681732</v>
+        <v>287.9146462681733</v>
       </c>
       <c r="M17" t="n">
-        <v>320.3605191865809</v>
+        <v>320.360519186581</v>
       </c>
       <c r="N17" t="n">
-        <v>325.5442873136309</v>
+        <v>325.5442873136311</v>
       </c>
       <c r="O17" t="n">
-        <v>307.4022391611088</v>
+        <v>307.4022391611089</v>
       </c>
       <c r="P17" t="n">
-        <v>262.3606991218487</v>
+        <v>262.3606991218488</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.0219587610993</v>
+        <v>197.0219587610994</v>
       </c>
       <c r="R17" t="n">
         <v>114.6062031186296</v>
       </c>
       <c r="S17" t="n">
-        <v>41.57505189446635</v>
+        <v>41.57505189446636</v>
       </c>
       <c r="T17" t="n">
-        <v>7.98660623886018</v>
+        <v>7.986606238860182</v>
       </c>
       <c r="U17" t="n">
         <v>0.1459573955702602</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9761761426612399</v>
+        <v>0.9761761426612402</v>
       </c>
       <c r="H18" t="n">
-        <v>9.427806430438817</v>
+        <v>9.427806430438821</v>
       </c>
       <c r="I18" t="n">
-        <v>33.6095733328541</v>
+        <v>33.60957333285411</v>
       </c>
       <c r="J18" t="n">
-        <v>92.22723810993759</v>
+        <v>92.22723810993763</v>
       </c>
       <c r="K18" t="n">
-        <v>157.6310396682406</v>
+        <v>157.6310396682407</v>
       </c>
       <c r="L18" t="n">
         <v>211.9543857124767</v>
       </c>
       <c r="M18" t="n">
-        <v>247.3407708839466</v>
+        <v>247.3407708839467</v>
       </c>
       <c r="N18" t="n">
-        <v>253.8871451038108</v>
+        <v>253.8871451038109</v>
       </c>
       <c r="O18" t="n">
-        <v>232.2571368901065</v>
+        <v>232.2571368901066</v>
       </c>
       <c r="P18" t="n">
         <v>186.4068285051977</v>
@@ -32338,16 +32338,16 @@
         <v>124.6080283158453</v>
       </c>
       <c r="R18" t="n">
-        <v>60.60855033119525</v>
+        <v>60.60855033119527</v>
       </c>
       <c r="S18" t="n">
         <v>18.13204370250153</v>
       </c>
       <c r="T18" t="n">
-        <v>3.934674890814382</v>
+        <v>3.934674890814383</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0642221146487658</v>
+        <v>0.06422211464876583</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8183932861252556</v>
+        <v>0.818393286125256</v>
       </c>
       <c r="H19" t="n">
-        <v>7.276260307550006</v>
+        <v>7.276260307550008</v>
       </c>
       <c r="I19" t="n">
-        <v>24.61131809547588</v>
+        <v>24.61131809547589</v>
       </c>
       <c r="J19" t="n">
-        <v>57.86040532905557</v>
+        <v>57.86040532905559</v>
       </c>
       <c r="K19" t="n">
-        <v>95.08241996982514</v>
+        <v>95.08241996982517</v>
       </c>
       <c r="L19" t="n">
         <v>121.6727618299312</v>
@@ -32405,28 +32405,28 @@
         <v>128.2868675696162</v>
       </c>
       <c r="N19" t="n">
-        <v>125.2364925940585</v>
+        <v>125.2364925940586</v>
       </c>
       <c r="O19" t="n">
-        <v>115.6761710243225</v>
+        <v>115.6761710243226</v>
       </c>
       <c r="P19" t="n">
-        <v>98.98094798736724</v>
+        <v>98.98094798736727</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.529277804543</v>
+        <v>68.52927780454303</v>
       </c>
       <c r="R19" t="n">
-        <v>36.79793811977739</v>
+        <v>36.79793811977741</v>
       </c>
       <c r="S19" t="n">
         <v>14.26236299547377</v>
       </c>
       <c r="T19" t="n">
-        <v>3.496771313444273</v>
+        <v>3.496771313444274</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04463963378865036</v>
+        <v>0.04463963378865037</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.824467444628252</v>
+        <v>1.824467444628253</v>
       </c>
       <c r="H20" t="n">
         <v>18.6848272172991</v>
       </c>
       <c r="I20" t="n">
-        <v>70.33778115903077</v>
+        <v>70.3377811590308</v>
       </c>
       <c r="J20" t="n">
         <v>154.8493937785173</v>
@@ -32478,31 +32478,31 @@
         <v>232.0791007096313</v>
       </c>
       <c r="L20" t="n">
-        <v>287.9146462681732</v>
+        <v>287.9146462681733</v>
       </c>
       <c r="M20" t="n">
-        <v>320.3605191865809</v>
+        <v>320.360519186581</v>
       </c>
       <c r="N20" t="n">
-        <v>325.5442873136309</v>
+        <v>325.5442873136311</v>
       </c>
       <c r="O20" t="n">
-        <v>307.4022391611088</v>
+        <v>307.4022391611089</v>
       </c>
       <c r="P20" t="n">
-        <v>262.3606991218487</v>
+        <v>262.3606991218488</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.0219587610993</v>
+        <v>197.0219587610994</v>
       </c>
       <c r="R20" t="n">
         <v>114.6062031186296</v>
       </c>
       <c r="S20" t="n">
-        <v>41.57505189446635</v>
+        <v>41.57505189446636</v>
       </c>
       <c r="T20" t="n">
-        <v>7.98660623886018</v>
+        <v>7.986606238860182</v>
       </c>
       <c r="U20" t="n">
         <v>0.1459573955702602</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9761761426612399</v>
+        <v>0.9761761426612402</v>
       </c>
       <c r="H21" t="n">
-        <v>9.427806430438817</v>
+        <v>9.427806430438821</v>
       </c>
       <c r="I21" t="n">
-        <v>33.6095733328541</v>
+        <v>33.60957333285411</v>
       </c>
       <c r="J21" t="n">
-        <v>92.22723810993759</v>
+        <v>92.22723810993763</v>
       </c>
       <c r="K21" t="n">
-        <v>157.6310396682406</v>
+        <v>157.6310396682407</v>
       </c>
       <c r="L21" t="n">
         <v>211.9543857124767</v>
       </c>
       <c r="M21" t="n">
-        <v>247.3407708839466</v>
+        <v>247.3407708839467</v>
       </c>
       <c r="N21" t="n">
-        <v>253.8871451038108</v>
+        <v>253.8871451038109</v>
       </c>
       <c r="O21" t="n">
-        <v>232.2571368901065</v>
+        <v>232.2571368901066</v>
       </c>
       <c r="P21" t="n">
         <v>186.4068285051977</v>
@@ -32575,16 +32575,16 @@
         <v>124.6080283158453</v>
       </c>
       <c r="R21" t="n">
-        <v>60.60855033119525</v>
+        <v>60.60855033119527</v>
       </c>
       <c r="S21" t="n">
         <v>18.13204370250153</v>
       </c>
       <c r="T21" t="n">
-        <v>3.934674890814382</v>
+        <v>3.934674890814383</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0642221146487658</v>
+        <v>0.06422211464876583</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8183932861252556</v>
+        <v>0.818393286125256</v>
       </c>
       <c r="H22" t="n">
-        <v>7.276260307550006</v>
+        <v>7.276260307550008</v>
       </c>
       <c r="I22" t="n">
-        <v>24.61131809547588</v>
+        <v>24.61131809547589</v>
       </c>
       <c r="J22" t="n">
-        <v>57.86040532905557</v>
+        <v>57.86040532905559</v>
       </c>
       <c r="K22" t="n">
-        <v>95.08241996982514</v>
+        <v>95.08241996982517</v>
       </c>
       <c r="L22" t="n">
         <v>121.6727618299312</v>
@@ -32642,28 +32642,28 @@
         <v>128.2868675696162</v>
       </c>
       <c r="N22" t="n">
-        <v>125.2364925940585</v>
+        <v>125.2364925940586</v>
       </c>
       <c r="O22" t="n">
-        <v>115.6761710243225</v>
+        <v>115.6761710243226</v>
       </c>
       <c r="P22" t="n">
-        <v>98.98094798736724</v>
+        <v>98.98094798736727</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.529277804543</v>
+        <v>68.52927780454303</v>
       </c>
       <c r="R22" t="n">
-        <v>36.79793811977739</v>
+        <v>36.79793811977741</v>
       </c>
       <c r="S22" t="n">
         <v>14.26236299547377</v>
       </c>
       <c r="T22" t="n">
-        <v>3.496771313444273</v>
+        <v>3.496771313444274</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04463963378865036</v>
+        <v>0.04463963378865037</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34371,13 +34371,13 @@
         <v>197.4525622846456</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9302065681738</v>
+        <v>295.9302065681732</v>
       </c>
       <c r="L44" t="n">
         <v>367.1275891866945</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835332</v>
+        <v>408.5001808835338</v>
       </c>
       <c r="N44" t="n">
         <v>415.1101408840192</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>81.52580244520934</v>
+        <v>81.52580244520939</v>
       </c>
       <c r="K11" t="n">
         <v>142.9427110364142</v>
       </c>
       <c r="L11" t="n">
-        <v>192.4292482053284</v>
+        <v>192.4292482053285</v>
       </c>
       <c r="M11" t="n">
-        <v>227.0702947295354</v>
+        <v>227.0702947295356</v>
       </c>
       <c r="N11" t="n">
-        <v>232.6319965570116</v>
+        <v>232.6319965570117</v>
       </c>
       <c r="O11" t="n">
-        <v>214.2124635353256</v>
+        <v>214.2124635353258</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7113358409646</v>
+        <v>168.7113358409647</v>
       </c>
       <c r="Q11" t="n">
-        <v>106.9881543619473</v>
+        <v>106.9881543619474</v>
       </c>
       <c r="R11" t="n">
-        <v>27.29406030390605</v>
+        <v>27.29406030390609</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>286.9877002944156</v>
+        <v>286.9877002944157</v>
       </c>
       <c r="K12" t="n">
-        <v>184.3316535347125</v>
+        <v>101.8052568836253</v>
       </c>
       <c r="L12" t="n">
-        <v>155.8398619016276</v>
+        <v>155.8398619016277</v>
       </c>
       <c r="M12" t="n">
-        <v>189.7764871455291</v>
+        <v>189.7764871455292</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6937517100608</v>
+        <v>200.6937517100609</v>
       </c>
       <c r="O12" t="n">
-        <v>174.5056578901065</v>
+        <v>174.5056578901066</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1471935023939</v>
+        <v>132.147193502394</v>
       </c>
       <c r="Q12" t="n">
-        <v>67.91540981100658</v>
+        <v>67.91540981100663</v>
       </c>
       <c r="R12" t="n">
-        <v>1.608351225789839</v>
+        <v>84.13474787687782</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.0852027080561</v>
+        <v>6.427259646100168</v>
       </c>
       <c r="K13" t="n">
-        <v>251.1958823155201</v>
+        <v>42.83205041075834</v>
       </c>
       <c r="L13" t="n">
-        <v>143.939592644753</v>
+        <v>110.6050102856657</v>
       </c>
       <c r="M13" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="N13" t="n">
-        <v>73.52384708563908</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="O13" t="n">
-        <v>59.60127295132622</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="P13" t="n">
-        <v>306.7339179364707</v>
+        <v>43.20110634746249</v>
       </c>
       <c r="Q13" t="n">
         <v>134.7192068979883</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>81.52580244520937</v>
+        <v>81.52580244520942</v>
       </c>
       <c r="K14" t="n">
-        <v>142.9427110364142</v>
+        <v>142.9427110364143</v>
       </c>
       <c r="L14" t="n">
-        <v>192.4292482053285</v>
+        <v>192.4292482053286</v>
       </c>
       <c r="M14" t="n">
-        <v>227.0702947295355</v>
+        <v>227.0702947295356</v>
       </c>
       <c r="N14" t="n">
-        <v>232.6319965570117</v>
+        <v>232.6319965570118</v>
       </c>
       <c r="O14" t="n">
-        <v>214.2124635353256</v>
+        <v>214.2124635353258</v>
       </c>
       <c r="P14" t="n">
-        <v>168.7113358409646</v>
+        <v>168.7113358409647</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.9881543619473</v>
+        <v>106.9881543619474</v>
       </c>
       <c r="R14" t="n">
-        <v>27.29406030390606</v>
+        <v>27.29406030390612</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>13.06846786689187</v>
+        <v>13.06846786689189</v>
       </c>
       <c r="J15" t="n">
-        <v>286.9877002944156</v>
+        <v>267.5873296069133</v>
       </c>
       <c r="K15" t="n">
-        <v>171.2631856678205</v>
+        <v>101.8052568836253</v>
       </c>
       <c r="L15" t="n">
         <v>155.8398619016277</v>
       </c>
       <c r="M15" t="n">
-        <v>189.7764871455292</v>
+        <v>189.7764871455293</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6937517100608</v>
+        <v>200.693751710061</v>
       </c>
       <c r="O15" t="n">
-        <v>174.5056578901065</v>
+        <v>174.5056578901066</v>
       </c>
       <c r="P15" t="n">
-        <v>132.1471935023939</v>
+        <v>132.147193502394</v>
       </c>
       <c r="Q15" t="n">
-        <v>67.9154098110066</v>
+        <v>67.91540981100664</v>
       </c>
       <c r="R15" t="n">
-        <v>1.608351225789846</v>
+        <v>90.46665069748811</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.427259646100154</v>
+        <v>72.08520270805613</v>
       </c>
       <c r="K16" t="n">
         <v>251.1958823155201</v>
       </c>
       <c r="L16" t="n">
-        <v>67.04446793602972</v>
+        <v>256.5385615968823</v>
       </c>
       <c r="M16" t="n">
-        <v>314.7533096741342</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="N16" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="O16" t="n">
-        <v>352.0071444758893</v>
+        <v>59.60127295132627</v>
       </c>
       <c r="P16" t="n">
-        <v>43.20110634746248</v>
+        <v>43.20110634746251</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.169752144617448</v>
+        <v>7.169752144617476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>81.52580244520934</v>
+        <v>81.52580244520939</v>
       </c>
       <c r="K17" t="n">
         <v>142.9427110364142</v>
       </c>
       <c r="L17" t="n">
-        <v>192.4292482053284</v>
+        <v>192.4292482053285</v>
       </c>
       <c r="M17" t="n">
-        <v>227.0702947295354</v>
+        <v>227.0702947295356</v>
       </c>
       <c r="N17" t="n">
-        <v>232.6319965570116</v>
+        <v>232.6319965570117</v>
       </c>
       <c r="O17" t="n">
-        <v>214.2124635353256</v>
+        <v>214.2124635353258</v>
       </c>
       <c r="P17" t="n">
-        <v>168.7113358409646</v>
+        <v>168.7113358409647</v>
       </c>
       <c r="Q17" t="n">
-        <v>106.9881543619473</v>
+        <v>106.9881543619474</v>
       </c>
       <c r="R17" t="n">
-        <v>27.29406030390605</v>
+        <v>27.29406030390609</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.06846786689189</v>
       </c>
       <c r="J18" t="n">
-        <v>286.9877002944156</v>
+        <v>40.85799930993762</v>
       </c>
       <c r="K18" t="n">
-        <v>184.3316535347125</v>
+        <v>101.8052568836253</v>
       </c>
       <c r="L18" t="n">
-        <v>155.8398619016276</v>
+        <v>155.8398619016277</v>
       </c>
       <c r="M18" t="n">
-        <v>189.7764871455291</v>
+        <v>189.7764871455292</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6937517100608</v>
+        <v>200.6937517100609</v>
       </c>
       <c r="O18" t="n">
-        <v>174.5056578901065</v>
+        <v>174.5056578901066</v>
       </c>
       <c r="P18" t="n">
-        <v>132.1471935023939</v>
+        <v>132.147193502394</v>
       </c>
       <c r="Q18" t="n">
-        <v>67.91540981100658</v>
+        <v>294.6447401079821</v>
       </c>
       <c r="R18" t="n">
-        <v>1.608351225789839</v>
+        <v>90.46665069748809</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.427259646100147</v>
+        <v>72.08520270805612</v>
       </c>
       <c r="K19" t="n">
-        <v>42.83205041075831</v>
+        <v>251.1958823155201</v>
       </c>
       <c r="L19" t="n">
-        <v>352.0071444758893</v>
+        <v>352.0071444758895</v>
       </c>
       <c r="M19" t="n">
-        <v>352.0071444758893</v>
+        <v>143.939592644753</v>
       </c>
       <c r="N19" t="n">
-        <v>238.1544650390364</v>
+        <v>73.52384708563913</v>
       </c>
       <c r="O19" t="n">
-        <v>352.0071444758893</v>
+        <v>59.60127295132626</v>
       </c>
       <c r="P19" t="n">
-        <v>43.20110634746246</v>
+        <v>306.7339179364707</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.169752144617433</v>
+        <v>134.7192068979883</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>81.52580244520934</v>
+        <v>81.52580244520939</v>
       </c>
       <c r="K20" t="n">
         <v>142.9427110364142</v>
       </c>
       <c r="L20" t="n">
-        <v>192.4292482053284</v>
+        <v>192.4292482053285</v>
       </c>
       <c r="M20" t="n">
-        <v>227.0702947295354</v>
+        <v>227.0702947295356</v>
       </c>
       <c r="N20" t="n">
-        <v>232.6319965570116</v>
+        <v>232.6319965570117</v>
       </c>
       <c r="O20" t="n">
-        <v>214.2124635353256</v>
+        <v>214.2124635353258</v>
       </c>
       <c r="P20" t="n">
-        <v>168.7113358409646</v>
+        <v>168.7113358409647</v>
       </c>
       <c r="Q20" t="n">
-        <v>106.9881543619473</v>
+        <v>106.9881543619474</v>
       </c>
       <c r="R20" t="n">
-        <v>27.29406030390605</v>
+        <v>27.29406030390609</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.06846786689187</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.85799930993758</v>
+        <v>280.6557974738054</v>
       </c>
       <c r="K21" t="n">
-        <v>101.8052568836252</v>
+        <v>101.8052568836253</v>
       </c>
       <c r="L21" t="n">
-        <v>352.0071444758892</v>
+        <v>155.8398619016277</v>
       </c>
       <c r="M21" t="n">
-        <v>189.7764871455291</v>
+        <v>189.7764871455292</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6937517100608</v>
+        <v>200.6937517100609</v>
       </c>
       <c r="O21" t="n">
-        <v>174.5056578901065</v>
+        <v>174.5056578901066</v>
       </c>
       <c r="P21" t="n">
-        <v>132.1471935023939</v>
+        <v>132.147193502394</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.4774575337198</v>
+        <v>67.91540981100663</v>
       </c>
       <c r="R21" t="n">
-        <v>90.46665069748806</v>
+        <v>90.46665069748809</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>72.0852027080561</v>
+        <v>6.427259646100168</v>
       </c>
       <c r="K22" t="n">
-        <v>42.83205041075831</v>
+        <v>42.83205041075834</v>
       </c>
       <c r="L22" t="n">
-        <v>67.04446793602969</v>
+        <v>267.0275249745918</v>
       </c>
       <c r="M22" t="n">
-        <v>352.0071444758892</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="N22" t="n">
-        <v>352.0071444758892</v>
+        <v>352.0071444758896</v>
       </c>
       <c r="O22" t="n">
-        <v>352.0071444758892</v>
+        <v>59.60127295132626</v>
       </c>
       <c r="P22" t="n">
-        <v>43.20110634746246</v>
+        <v>306.7339179364707</v>
       </c>
       <c r="Q22" t="n">
-        <v>112.621806185668</v>
+        <v>7.169752144617462</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
         <v>145.1737298295874</v>
@@ -36448,19 +36448,19 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>506.0804618258588</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
-        <v>488.1774516897217</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P24" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.1983779132224</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>92.92219217911857</v>
       </c>
       <c r="L25" t="n">
         <v>417.6704839137738</v>
@@ -36527,16 +36527,16 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N25" t="n">
-        <v>186.1095904660696</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O25" t="n">
-        <v>91.426850604809</v>
+        <v>409.6841833510115</v>
       </c>
       <c r="P25" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>271.6421911238497</v>
       </c>
       <c r="M26" t="n">
-        <v>315.2099564264878</v>
+        <v>315.2099564264879</v>
       </c>
       <c r="N26" t="n">
         <v>322.1978501273999</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J27" t="n">
         <v>312.361855595743</v>
@@ -36685,19 +36685,19 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N27" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O27" t="n">
-        <v>261.8132091392819</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P27" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169418</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K28" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M28" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273621</v>
       </c>
       <c r="N28" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O28" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P28" t="n">
-        <v>160.0217794650455</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>4.201322183229095</v>
       </c>
       <c r="J29" t="n">
-        <v>124.1289709513378</v>
+        <v>124.1289709513377</v>
       </c>
       <c r="K29" t="n">
         <v>206.7938168949561</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K30" t="n">
         <v>145.1737298295874</v>
@@ -36922,19 +36922,19 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N30" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O30" t="n">
-        <v>506.0804618258589</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P30" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R30" t="n">
-        <v>20.14581658165431</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K31" t="n">
-        <v>92.92219217911857</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273619</v>
       </c>
       <c r="N31" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O31" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P31" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>4.201322183229095</v>
       </c>
       <c r="J32" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513373</v>
       </c>
       <c r="K32" t="n">
         <v>206.7938168949561</v>
@@ -37089,7 +37089,7 @@
         <v>240.8937112531725</v>
       </c>
       <c r="Q32" t="n">
-        <v>161.1941121877318</v>
+        <v>161.1941121877317</v>
       </c>
       <c r="R32" t="n">
         <v>58.82526145471046</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
         <v>312.361855595743</v>
@@ -37156,10 +37156,10 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M33" t="n">
-        <v>506.0804618258589</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N33" t="n">
-        <v>281.2339455079572</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O33" t="n">
         <v>238.4057462161408</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K34" t="n">
-        <v>68.9917418444803</v>
+        <v>92.92219217911813</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
@@ -37247,7 +37247,7 @@
         <v>70.43338606845131</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.95442139913182</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>312.361855595743</v>
+        <v>147.6574099585241</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37396,7 +37396,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N36" t="n">
-        <v>506.0804618258589</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O36" t="n">
         <v>238.4057462161408</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>125.6058408363637</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="R36" t="n">
         <v>18.28336828375327</v>
@@ -37466,19 +37466,19 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K37" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M37" t="n">
-        <v>216.1655361051054</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>443.3679056323699</v>
+        <v>313.6590452194409</v>
       </c>
       <c r="O37" t="n">
-        <v>409.6841833510115</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P37" t="n">
         <v>333.9661976574595</v>
@@ -37621,7 +37621,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
         <v>145.1737298295874</v>
@@ -37630,19 +37630,19 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M39" t="n">
-        <v>506.0804618258589</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N39" t="n">
         <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>495.2245646690315</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.1983779132224</v>
+        <v>361.1414746226779</v>
       </c>
       <c r="R39" t="n">
         <v>18.28336828375327</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K40" t="n">
         <v>68.9917418444803</v>
@@ -37709,7 +37709,7 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>281.8234791670613</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N40" t="n">
         <v>443.3679056323699</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.0239710644933</v>
+        <v>49.95442139913182</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J42" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K42" t="n">
         <v>145.1737298295874</v>
@@ -37867,22 +37867,22 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M42" t="n">
-        <v>259.6889308827173</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N42" t="n">
-        <v>506.080461825859</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O42" t="n">
-        <v>506.080461825859</v>
+        <v>238.4057462161408</v>
       </c>
       <c r="P42" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.1983779132224</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R42" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L43" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642374</v>
       </c>
       <c r="N43" t="n">
-        <v>443.3679056323699</v>
+        <v>216.3031158151056</v>
       </c>
       <c r="O43" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P43" t="n">
-        <v>70.43338606845131</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.95442139913205</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>124.1289709513377</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949566</v>
+        <v>206.7938168949561</v>
       </c>
       <c r="L44" t="n">
         <v>271.6421911238497</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>315.2099564264884</v>
       </c>
       <c r="N44" t="n">
         <v>322.1978501273999</v>
@@ -38095,10 +38095,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
-        <v>506.080461825859</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L45" t="n">
         <v>214.1541257794518</v>
@@ -38116,10 +38116,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>226.5989851768466</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>215.6404327273626</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P46" t="n">
-        <v>94.36383640308986</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
